--- a/3_Markers/oxford_reference.xlsx
+++ b/3_Markers/oxford_reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\CohortSymmetryMethodsStudy\3_Markers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72C8603-4A2A-42F9-90C9-056D286BA6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECCF19-246C-4723-A23D-C25C0B857096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="82">
   <si>
     <t xml:space="preserve">bisphosphonates </t>
   </si>
@@ -51,12 +51,6 @@
     <t>ingredient</t>
   </si>
   <si>
-    <t>gi bleeding</t>
-  </si>
-  <si>
-    <t>myocardial infarction</t>
-  </si>
-  <si>
     <t>cough</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>Drug-Drug</t>
   </si>
   <si>
-    <t>laxatives</t>
-  </si>
-  <si>
     <t>Amiodarone</t>
   </si>
   <si>
@@ -132,12 +123,6 @@
     <t>Calcium channel blockers</t>
   </si>
   <si>
-    <t>diuretic</t>
-  </si>
-  <si>
-    <t>Antitussive agents</t>
-  </si>
-  <si>
     <t>amiodarone</t>
   </si>
   <si>
@@ -150,12 +135,6 @@
     <t>Bile acid sequestrants</t>
   </si>
   <si>
-    <t>DPP4i</t>
-  </si>
-  <si>
-    <t>SGLT2i</t>
-  </si>
-  <si>
     <t>quinapril</t>
   </si>
   <si>
@@ -165,9 +144,6 @@
     <t>glipizide</t>
   </si>
   <si>
-    <t>atrial fibrillation</t>
-  </si>
-  <si>
     <t>captopril</t>
   </si>
   <si>
@@ -243,9 +219,6 @@
     <t>carpal_tunnel_syndrome</t>
   </si>
   <si>
-    <t>proton pump inhibitors</t>
-  </si>
-  <si>
     <t>index_level_atc</t>
   </si>
   <si>
@@ -285,7 +258,31 @@
     <t>INSULINS AND ANALOGUES</t>
   </si>
   <si>
-    <t>gastroesophageal_reflux_disease</t>
+    <t>gastrointestinal_hemorrhage</t>
+  </si>
+  <si>
+    <t>gastrointestinal_issues_reflux</t>
+  </si>
+  <si>
+    <t>Proton pump inhibitors</t>
+  </si>
+  <si>
+    <t>DRUGS FOR CONSTIPATION</t>
+  </si>
+  <si>
+    <t>DIURETICS</t>
+  </si>
+  <si>
+    <t>Cough suppressants, excluding combinations with expectorants</t>
+  </si>
+  <si>
+    <t>Dipeptidyl peptidase 4 (DPP-4) inhibitors</t>
+  </si>
+  <si>
+    <t>Sodium-glucose co-transporter 2 (SGLT2) inhibitors</t>
+  </si>
+  <si>
+    <t>atrial_fibrillation</t>
   </si>
 </sst>
 </file>
@@ -677,7 +674,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,28 +691,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -726,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -742,16 +739,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -764,16 +761,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -786,16 +783,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -808,16 +805,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -830,14 +827,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -850,14 +847,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -870,16 +867,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -892,16 +889,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -914,16 +911,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -936,16 +933,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -958,16 +955,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -980,16 +977,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1002,16 +999,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1024,23 +1021,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -1048,23 +1047,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1072,23 +1073,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1096,21 +1099,21 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1118,21 +1121,21 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1140,21 +1143,21 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -1162,21 +1165,21 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -1184,21 +1187,21 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -1206,21 +1209,21 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -1228,23 +1231,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -1252,23 +1257,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
@@ -1276,21 +1283,21 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1298,21 +1305,21 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1320,21 +1327,21 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1342,23 +1349,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1366,23 +1375,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1390,14 +1401,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1410,14 +1421,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1430,14 +1441,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1450,14 +1461,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1470,14 +1481,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1490,14 +1501,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1510,14 +1521,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1530,14 +1541,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1550,14 +1561,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1570,14 +1581,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1590,14 +1601,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1610,14 +1621,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1630,14 +1641,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1650,14 +1661,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1670,14 +1681,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>

--- a/3_Markers/oxford_reference.xlsx
+++ b/3_Markers/oxford_reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\CohortSymmetryMethodsStudy\3_Markers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECCF19-246C-4723-A23D-C25C0B857096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B02E48-07CD-4002-A947-3A7FCC97566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="81">
   <si>
     <t xml:space="preserve">bisphosphonates </t>
   </si>
@@ -76,9 +75,6 @@
   </si>
   <si>
     <t>fracture</t>
-  </si>
-  <si>
-    <t>falls</t>
   </si>
   <si>
     <t>stroke</t>
@@ -673,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957B4286-CFAB-40A9-AC7C-C0C8E203B13F}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,28 +687,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -723,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -739,16 +735,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -761,16 +757,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -783,13 +779,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -805,16 +801,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -867,13 +863,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -895,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -911,16 +907,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -933,13 +929,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -955,16 +951,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -977,16 +973,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -999,16 +995,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1021,25 +1017,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -1047,25 +1043,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1073,25 +1069,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1099,21 +1095,21 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1121,21 +1117,21 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1143,21 +1139,21 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -1165,21 +1161,21 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -1187,21 +1183,21 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -1209,21 +1205,21 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -1231,25 +1227,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -1257,25 +1253,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
@@ -1283,21 +1279,21 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1305,21 +1301,21 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1327,21 +1323,21 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1349,25 +1345,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1375,25 +1371,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1401,14 +1397,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1421,14 +1417,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1441,14 +1437,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1461,14 +1457,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1481,14 +1477,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1501,14 +1497,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1521,14 +1517,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1541,7 +1537,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
@@ -1561,14 +1557,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1581,14 +1577,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1601,14 +1597,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1621,14 +1617,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1641,14 +1637,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1661,14 +1657,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1681,14 +1677,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>

--- a/3_Markers/oxford_reference.xlsx
+++ b/3_Markers/oxford_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\CohortSymmetryMethodsStudy\3_Markers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B02E48-07CD-4002-A947-3A7FCC97566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE079A5-2783-4924-A5A2-799395FADC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>OPIOIDS</t>
   </si>
   <si>
-    <t>bendodiazepines derivatives</t>
-  </si>
-  <si>
     <t>ANABOLIC STEROIDS</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>atrial_fibrillation</t>
+  </si>
+  <si>
+    <t>bendodiazepine derivatives</t>
   </si>
 </sst>
 </file>
@@ -669,23 +669,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957B4286-CFAB-40A9-AC7C-C0C8E203B13F}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -711,7 +711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,7 +722,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -744,7 +744,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -810,7 +810,7 @@
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -905,9 +905,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -927,9 +927,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -971,9 +971,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -993,9 +993,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>

--- a/3_Markers/oxford_reference.xlsx
+++ b/3_Markers/oxford_reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\CohortSymmetryMethodsStudy\3_Markers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE079A5-2783-4924-A5A2-799395FADC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9B4FE4-8177-4A0C-985A-BEA99FFC8400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
   </bookViews>
@@ -266,9 +266,6 @@
     <t>DIURETICS</t>
   </si>
   <si>
-    <t>Cough suppressants, excluding combinations with expectorants</t>
-  </si>
-  <si>
     <t>Dipeptidyl peptidase 4 (DPP-4) inhibitors</t>
   </si>
   <si>
@@ -279,13 +276,16 @@
   </si>
   <si>
     <t>bendodiazepine derivatives</t>
+  </si>
+  <si>
+    <t>COUGH SUPPRESSANTS, EXCL. COMBINATIONS WITH EXPECTORANTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +308,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,10 +334,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,11 +677,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957B4286-CFAB-40A9-AC7C-C0C8E203B13F}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="64.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
@@ -685,7 +693,7 @@
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -711,7 +719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -755,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -777,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -799,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -821,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -841,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -861,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -883,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -905,9 +913,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -927,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -949,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -971,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -993,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -1015,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1067,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1093,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1203,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1261,8 +1269,8 @@
       <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>76</v>
+      <c r="D26" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
@@ -1277,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1343,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1362,7 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
@@ -1369,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
@@ -1395,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1424,7 +1432,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1435,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1475,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1515,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1535,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -1555,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -1575,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1595,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -1635,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1655,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
@@ -1675,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>

--- a/3_Markers/oxford_reference.xlsx
+++ b/3_Markers/oxford_reference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\CohortSymmetryMethodsStudy\3_Markers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9B4FE4-8177-4A0C-985A-BEA99FFC8400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FD1EA9-DF77-4C9D-9618-8D4578472883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
   </bookViews>
@@ -275,10 +275,10 @@
     <t>atrial_fibrillation</t>
   </si>
   <si>
-    <t>bendodiazepine derivatives</t>
-  </si>
-  <si>
     <t>COUGH SUPPRESSANTS, EXCL. COMBINATIONS WITH EXPECTORANTS</t>
+  </si>
+  <si>
+    <t>Bendodiazepine derivatives</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957B4286-CFAB-40A9-AC7C-C0C8E203B13F}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -915,7 +915,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>64</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>

--- a/3_Markers/oxford_reference.xlsx
+++ b/3_Markers/oxford_reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\CohortSymmetryMethodsStudy\3_Markers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FD1EA9-DF77-4C9D-9618-8D4578472883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FF0451-4385-404D-B350-E4A1877124E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
   </bookViews>
@@ -278,7 +278,7 @@
     <t>COUGH SUPPRESSANTS, EXCL. COMBINATIONS WITH EXPECTORANTS</t>
   </si>
   <si>
-    <t>Bendodiazepine derivatives</t>
+    <t>Benzodiazepine derivatives</t>
   </si>
 </sst>
 </file>

--- a/3_Markers/oxford_reference.xlsx
+++ b/3_Markers/oxford_reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\CohortSymmetryMethodsStudy\3_Markers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FF0451-4385-404D-B350-E4A1877124E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E1192-5294-45E9-973A-5DBBEE12B3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
   <si>
     <t xml:space="preserve">bisphosphonates </t>
   </si>
@@ -128,9 +128,6 @@
     <t>rosuvastatin</t>
   </si>
   <si>
-    <t>Bile acid sequestrants</t>
-  </si>
-  <si>
     <t>quinapril</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>epilepsy</t>
   </si>
   <si>
-    <t>solifenacin</t>
-  </si>
-  <si>
     <t>fall</t>
   </si>
   <si>
@@ -179,12 +173,6 @@
     <t>zopiclone</t>
   </si>
   <si>
-    <t>azilsartan</t>
-  </si>
-  <si>
-    <t>loxapine</t>
-  </si>
-  <si>
     <t>sulfasalazine</t>
   </si>
   <si>
@@ -264,12 +252,6 @@
   </si>
   <si>
     <t>DIURETICS</t>
-  </si>
-  <si>
-    <t>Dipeptidyl peptidase 4 (DPP-4) inhibitors</t>
-  </si>
-  <si>
-    <t>Sodium-glucose co-transporter 2 (SGLT2) inhibitors</t>
   </si>
   <si>
     <t>atrial_fibrillation</t>
@@ -675,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957B4286-CFAB-40A9-AC7C-C0C8E203B13F}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -695,28 +677,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -727,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -743,16 +725,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -765,16 +747,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -787,13 +769,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -809,16 +791,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
         <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -871,13 +853,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -899,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -915,16 +897,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -937,13 +919,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -959,13 +941,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -981,13 +963,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
@@ -1003,13 +985,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
@@ -1031,16 +1013,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>17</v>
@@ -1051,22 +1033,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>17</v>
@@ -1077,22 +1059,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>17</v>
@@ -1241,16 +1223,16 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>17</v>
@@ -1261,22 +1243,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>17</v>
@@ -1356,22 +1338,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1379,25 +1355,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1405,14 +1375,14 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1425,14 +1395,14 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1445,14 +1415,14 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1465,14 +1435,14 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1485,14 +1455,14 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1505,14 +1475,14 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1525,14 +1495,14 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1545,14 +1515,14 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1565,14 +1535,14 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1592,7 +1562,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1600,106 +1570,6 @@
         <v>2</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="2">
         <v>0</v>
       </c>
     </row>

--- a/3_Markers/oxford_reference.xlsx
+++ b/3_Markers/oxford_reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\CohortSymmetryMethodsStudy\3_Markers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E1192-5294-45E9-973A-5DBBEE12B3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83428463-D2B6-4485-9EE9-28E94EB61967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
   <si>
     <t xml:space="preserve">bisphosphonates </t>
   </si>
@@ -224,18 +224,9 @@
     <t>ACE INHIBITORS, PLAIN</t>
   </si>
   <si>
-    <t>acetylsalicylic acid; oral (platelet aggregation inhibitors excl. heparin)</t>
-  </si>
-  <si>
-    <t>ATC 5th</t>
-  </si>
-  <si>
     <t>OPIOIDS</t>
   </si>
   <si>
-    <t>ANABOLIC STEROIDS</t>
-  </si>
-  <si>
     <t>INSULINS AND ANALOGUES</t>
   </si>
   <si>
@@ -261,6 +252,9 @@
   </si>
   <si>
     <t>Benzodiazepine derivatives</t>
+  </si>
+  <si>
+    <t>CORTICOSTEROIDS FOR SYSTEMIC USE</t>
   </si>
 </sst>
 </file>
@@ -657,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957B4286-CFAB-40A9-AC7C-C0C8E203B13F}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -712,7 +706,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -734,7 +728,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -790,17 +784,15 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>62</v>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -813,14 +805,14 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -832,15 +824,17 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -852,17 +846,17 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>64</v>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -875,7 +869,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -884,7 +878,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -896,17 +890,17 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>74</v>
+      <c r="A11" t="s">
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -919,16 +913,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -941,7 +935,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -950,7 +944,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -963,16 +957,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -984,39 +978,43 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>65</v>
+      <c r="A15" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -1033,7 +1031,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -1042,13 +1040,13 @@
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>17</v>
@@ -1058,24 +1056,20 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>64</v>
+      <c r="A18" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1085,14 +1079,14 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>3</v>
@@ -1107,14 +1101,14 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>3</v>
@@ -1129,7 +1123,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
@@ -1151,7 +1145,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
@@ -1173,7 +1167,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
@@ -1195,19 +1189,23 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1216,23 +1214,23 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
+      <c r="A25" t="s">
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>17</v>
@@ -1242,41 +1240,37 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>61</v>
+      <c r="A26" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>3</v>
@@ -1298,7 +1292,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>3</v>
@@ -1313,21 +1307,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1335,14 +1327,14 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1355,14 +1347,14 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1375,14 +1367,14 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1395,7 +1387,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
@@ -1415,14 +1407,14 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1435,14 +1427,14 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1455,14 +1447,14 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1475,7 +1467,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
@@ -1495,14 +1487,14 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1515,14 +1507,14 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1535,14 +1527,14 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1550,26 +1542,6 @@
         <v>2</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="2">
         <v>0</v>
       </c>
     </row>

--- a/3_Markers/oxford_reference.xlsx
+++ b/3_Markers/oxford_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\CohortSymmetryMethodsStudy\3_Markers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83428463-D2B6-4485-9EE9-28E94EB61967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28AD22B-B6E1-407B-8266-418D3BE58761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3EB47AE-5834-4740-B8B6-2CDE48A06656}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
   <si>
     <t xml:space="preserve">bisphosphonates </t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>fall</t>
-  </si>
-  <si>
-    <t>nitrazepam</t>
   </si>
   <si>
     <t>diazepam</t>
@@ -651,48 +648,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957B4286-CFAB-40A9-AC7C-C0C8E203B13F}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="59.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -703,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -719,16 +716,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -741,16 +738,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -763,13 +760,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -825,13 +822,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -853,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -869,13 +866,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -891,13 +888,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -913,13 +910,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -935,13 +932,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
@@ -957,13 +954,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
@@ -985,16 +982,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>17</v>
@@ -1005,22 +1002,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>17</v>
@@ -1031,22 +1028,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>17</v>
@@ -1195,16 +1192,16 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>17</v>
@@ -1215,22 +1212,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>17</v>
@@ -1334,7 +1331,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1354,7 +1351,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1434,7 +1431,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1447,14 +1444,14 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1474,7 +1471,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1487,14 +1484,14 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1507,14 +1504,14 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1522,26 +1519,6 @@
         <v>2</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="2">
         <v>0</v>
       </c>
     </row>
